--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9250500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14284900</v>
+      </c>
+      <c r="F8" s="3">
         <v>8243400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20366300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11245000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11279600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7873000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7192200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6552200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8890800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13967600</v>
+      </c>
+      <c r="F9" s="3">
         <v>7936200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>20029500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11002000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11033500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7632100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6959500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6320500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>359700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>317300</v>
+      </c>
+      <c r="F10" s="3">
         <v>307200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>336800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>243000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>246100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>240900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>232700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>231700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +938,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F15" s="3">
         <v>4400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2900</v>
       </c>
       <c r="K15" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9223600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14205000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8194400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20310200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11223300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11245500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7851400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7161300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6527800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F18" s="3">
         <v>49000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>56100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>34100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>30900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>24400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,37 +1105,49 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F21" s="3">
         <v>53400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>60300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>38500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>25100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>34100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>27300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1175,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F23" s="3">
         <v>49000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>56100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>34100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>21600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>30900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F24" s="3">
         <v>12400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>77400</v>
+      </c>
+      <c r="F26" s="3">
         <v>36600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>39300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>16300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>27200</v>
       </c>
       <c r="H26" s="3">
         <v>16300</v>
       </c>
       <c r="I26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K26" s="3">
         <v>23400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F27" s="3">
         <v>35700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>38400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>26700</v>
       </c>
       <c r="H27" s="3">
         <v>16000</v>
       </c>
       <c r="I27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K27" s="3">
         <v>23000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>17900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,11 +1417,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1525,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F33" s="3">
         <v>35700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>38400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>26700</v>
       </c>
       <c r="H33" s="3">
         <v>16000</v>
       </c>
       <c r="I33" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K33" s="3">
         <v>23000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F35" s="3">
         <v>35700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>38400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>26700</v>
       </c>
       <c r="H35" s="3">
         <v>16000</v>
       </c>
       <c r="I35" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K35" s="3">
         <v>23000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1704,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1033700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>952600</v>
+      </c>
+      <c r="F41" s="3">
         <v>465200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>519500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>338900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>471300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>345000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>274400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>358200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1770,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>428000</v>
+      </c>
+      <c r="F43" s="3">
         <v>411600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>482600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>333700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>427500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>283800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>305600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>352700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,25 +1840,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5794000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5550100</v>
+      </c>
+      <c r="F45" s="3">
         <v>4541900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>4535600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3760400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1678,8 +1875,14 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,95 +1910,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6020500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5865600</v>
+      </c>
+      <c r="F47" s="3">
         <v>6061300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4853400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5214000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5025800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>5141400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5131500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4210700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>163600</v>
+      </c>
+      <c r="F48" s="3">
         <v>126600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>74600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>76400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>45700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>45600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>44700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>109500</v>
+      </c>
+      <c r="F49" s="3">
         <v>76300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>73100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>71500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>67900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>65900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>59400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>59300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2085,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36900</v>
+      </c>
+      <c r="F52" s="3">
         <v>363400</v>
       </c>
-      <c r="E52" s="3">
-        <v>4549600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3779000</v>
-      </c>
       <c r="G52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I52" s="3">
         <v>3608400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3763200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3248600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3404100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2155,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13974800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13474900</v>
+      </c>
+      <c r="F54" s="3">
         <v>12389500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10870900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10129300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9936100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10054900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9407700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8710500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,95 +2224,115 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6450500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6499100</v>
+      </c>
+      <c r="F57" s="3">
         <v>5050100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5145500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4113200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4013200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3963800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3698100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3629500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4873100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4597400</v>
+      </c>
+      <c r="F58" s="3">
         <v>4990100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3869100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4362400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4233600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4141600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3761200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3270300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>141300</v>
+      </c>
+      <c r="F59" s="3">
         <v>99500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>44800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>47000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,37 +2360,49 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>887400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>783600</v>
+      </c>
+      <c r="F61" s="3">
         <v>832700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>459300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>325400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>369900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>507400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>428600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>435400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13175300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12707400</v>
+      </c>
+      <c r="F66" s="3">
         <v>11700700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10222300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9514400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9341900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9484400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8855900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8184500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>585700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>572400</v>
+      </c>
+      <c r="F72" s="3">
         <v>495000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>458400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>419100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>402100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>374900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>358600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>335200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>799500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>767500</v>
+      </c>
+      <c r="F76" s="3">
         <v>688800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>648600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>614900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>594200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>570500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>551800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>526000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F81" s="3">
         <v>35700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>38400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>26700</v>
       </c>
       <c r="H81" s="3">
         <v>16000</v>
       </c>
       <c r="I81" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K81" s="3">
         <v>23000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2900</v>
       </c>
       <c r="K83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>743400</v>
+      </c>
+      <c r="F89" s="3">
         <v>37200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>502400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>667600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-130000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>462500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>76100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-213000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-226300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-23200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3580,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="F100" s="3">
         <v>374200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>127800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-43700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-141000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>78600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>79600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>300</v>
+      </c>
+      <c r="M101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>369600</v>
+      </c>
+      <c r="F102" s="3">
         <v>408400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>621400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>617700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-274800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>518200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>58600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-138300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11244800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9250500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14284900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8243400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20366300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11245000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11279600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7873000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7192200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6552200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10795000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8890800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13967600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7936200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20029500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11002000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11033500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7632100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6959500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6320500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>449800</v>
+      </c>
+      <c r="E10" s="3">
         <v>359700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>317300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>307200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>336800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>243000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>246100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>240900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>232700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>231700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,43 +964,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E15" s="3">
         <v>8400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11168500</v>
+      </c>
+      <c r="E17" s="3">
         <v>9223600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14205000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8194400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20310200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11223300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11245500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7851400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7161300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6527800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E18" s="3">
         <v>26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>79900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>56100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,43 +1145,49 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E21" s="3">
         <v>35300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>87100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>53400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E23" s="3">
         <v>26900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>79900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E26" s="3">
         <v>19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,11 +1484,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,43 +1601,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1001500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1033700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>952600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>465200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>519500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>338900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>471300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>345000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>274400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>358200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,43 +1866,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>494200</v>
+      </c>
+      <c r="E43" s="3">
         <v>268300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>428000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>411600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>482600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>333700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>427500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>283800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>305600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>352700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,28 +1942,31 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6464000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5794000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5550100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4541900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4535600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,113 +2018,125 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6952300</v>
+      </c>
+      <c r="E47" s="3">
         <v>6020500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5865600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6061300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4853400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5214000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5025800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5141400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5131500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4210700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E48" s="3">
         <v>172500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>163600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>126600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>76400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E49" s="3">
         <v>106400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>109500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>73100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>71500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>67900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>65900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>59400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>59300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E52" s="3">
         <v>39300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>363400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3608400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3763200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3248600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3404100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15799700</v>
+      </c>
+      <c r="E54" s="3">
         <v>13974800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13474900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12389500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10870900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10129300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9936100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10054900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9407700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8710500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,113 +2356,123 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7347000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6450500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6499100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5050100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5145500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4113200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4013200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3963800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3698100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3629500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5514400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4873100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4597400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4990100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3869100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4362400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4233600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4141600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3761200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3270300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E59" s="3">
         <v>136900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>141300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10400</v>
       </c>
       <c r="J59" s="3">
         <v>10400</v>
       </c>
       <c r="K59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,43 +2506,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>826900</v>
+      </c>
+      <c r="E61" s="3">
         <v>887400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>783600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>832700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>459300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>325400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>369900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>507400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>428600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>435400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14939500</v>
+      </c>
+      <c r="E66" s="3">
         <v>13175300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12707400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11700700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10222300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9514400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9341900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9484400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8855900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8184500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>641000</v>
+      </c>
+      <c r="E72" s="3">
         <v>585700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>572400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>495000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>458400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>419100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>402100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>374900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>358600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>335200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>860200</v>
+      </c>
+      <c r="E76" s="3">
         <v>799500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>767500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>688800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>648600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>614900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>594200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>570500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>551800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>526000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>783800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-118800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>743400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>502400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>667600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-130000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>462500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>76100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-213000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-226300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E100" s="3">
         <v>104500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-146000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>374200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>127800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-141000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>78600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>79600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>14100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>706700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>369600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>408400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>621400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>617700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-274800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>518200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-138300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10192100</v>
+      </c>
+      <c r="E8" s="3">
         <v>11244800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9250500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14284900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8243400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20366300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11245000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11279600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7873000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7192200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6552200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9785200</v>
+      </c>
+      <c r="E9" s="3">
         <v>10795000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8890800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13967600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7936200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20029500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11002000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11033500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7632100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6959500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6320500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>406900</v>
+      </c>
+      <c r="E10" s="3">
         <v>449800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>359700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>317300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>307200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>336800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>243000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>246100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>240900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>232700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>231700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,46 +987,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E15" s="3">
         <v>8600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10146100</v>
+      </c>
+      <c r="E17" s="3">
         <v>11168500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9223600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14205000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8194400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20310200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11223300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11245500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7851400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7161300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6527800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E18" s="3">
         <v>76300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>49000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>56100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,46 +1182,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E21" s="3">
         <v>84900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>87100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>53400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E23" s="3">
         <v>76300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>79900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E26" s="3">
         <v>55300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E27" s="3">
         <v>53600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,11 +1548,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E33" s="3">
         <v>53600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E35" s="3">
         <v>53600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1075600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1001500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1033700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>952600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>465200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>519500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>338900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>471300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>345000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>274400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>358200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>634100</v>
+      </c>
+      <c r="E43" s="3">
         <v>494200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>268300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>428000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>411600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>482600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>333700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>427500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>283800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>305600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>352700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,31 +2041,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6943200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6464000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5794000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5550100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4541900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4535600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1983,8 +2082,11 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,122 +2123,134 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7198300</v>
+      </c>
+      <c r="E47" s="3">
         <v>6952300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6020500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5865600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6061300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4853400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5214000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5025800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5141400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5131500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4210700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E48" s="3">
         <v>183200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>172500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>163600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>126600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>76400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E49" s="3">
         <v>102500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>106400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>109500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>73100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>71500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>67900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>65900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>59400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E52" s="3">
         <v>35200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>363400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3608400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3763200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3248600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3404100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16799800</v>
+      </c>
+      <c r="E54" s="3">
         <v>15799700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13974800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13474900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12389500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10870900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10129300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9936100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10054900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9407700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8710500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,122 +2487,132 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7855900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7347000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6450500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6499100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5050100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5145500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4113200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4013200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3963800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3698100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3629500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5327900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5514400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4873100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4597400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4990100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3869100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4362400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4233600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4141600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3761200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3270300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E59" s="3">
         <v>133000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>136900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>141300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>10400</v>
       </c>
       <c r="K59" s="3">
         <v>10400</v>
       </c>
       <c r="L59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M59" s="3">
         <v>11300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,46 +2649,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>782400</v>
+      </c>
+      <c r="E61" s="3">
         <v>826900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>887400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>783600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>832700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>459300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>325400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>369900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>507400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>428600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>435400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15898400</v>
+      </c>
+      <c r="E66" s="3">
         <v>14939500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13175300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12707400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11700700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10222300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9514400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9341900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9484400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8855900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8184500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>675200</v>
+      </c>
+      <c r="E72" s="3">
         <v>641000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>585700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>572400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>495000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>458400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>419100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>402100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>374900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>358600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>335200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>901400</v>
+      </c>
+      <c r="E76" s="3">
         <v>860200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>799500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>767500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>688800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>648600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>614900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>594200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>570500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>551800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>526000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E81" s="3">
         <v>53600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>713600</v>
+      </c>
+      <c r="E89" s="3">
         <v>783800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-118800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>743400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>502400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>667600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-130000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>462500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>76100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-213000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-226300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-58100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>104500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-146000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>374200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>127800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-43700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-141000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>79600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>660200</v>
+      </c>
+      <c r="E102" s="3">
         <v>706700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>369600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>408400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>621400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>617700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-274800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>518200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-138300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11846800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10192100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11244800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9250500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14284900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8243400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20366300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11245000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11279600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7873000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7192200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6552200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11481000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9785200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10795000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8890800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13967600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7936200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20029500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11002000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11033500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7632100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6959500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6320500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>365800</v>
+      </c>
+      <c r="E10" s="3">
         <v>406900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>449800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>359700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>317300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>307200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>336800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>243000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>246100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>240900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>232700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>231700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,49 +1010,55 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E15" s="3">
         <v>9700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11841900</v>
+      </c>
+      <c r="E17" s="3">
         <v>10146100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11168500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9223600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14205000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8194400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20310200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11223300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11245500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7851400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7161300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6527800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E18" s="3">
         <v>46000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>49000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>56100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,49 +1219,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>55700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>84900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>87100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>53400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>46000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>76300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>79900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>49000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>11800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>34200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>55300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>33100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>33100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>33100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1075600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1001500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1033700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>952600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>465200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>519500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>338900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>471300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>345000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>274400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>358200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>487700</v>
+      </c>
+      <c r="E43" s="3">
         <v>634100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>494200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>268300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>428000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>411600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>482600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>333700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>427500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>283800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>305600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>352700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,34 +2140,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7567300</v>
+      </c>
+      <c r="E45" s="3">
         <v>6943200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6464000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5794000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5550100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4541900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4535600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,131 +2228,143 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8763700</v>
+      </c>
+      <c r="E47" s="3">
         <v>7198300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6952300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6020500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5865600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6061300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4853400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5214000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5025800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5141400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5131500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4210700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E48" s="3">
         <v>221000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>183200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>172500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>163600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>126600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>76400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E49" s="3">
         <v>98700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>102500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>106400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>109500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>76300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>73100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>71500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>67900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>65900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>59300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E52" s="3">
         <v>37000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>363400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3608400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3763200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3248600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3404100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18839600</v>
+      </c>
+      <c r="E54" s="3">
         <v>16799800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15799700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13974800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13474900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12389500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10870900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10129300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9936100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10054900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9407700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8710500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,131 +2618,141 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8754500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7855900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7347000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6450500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6499100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5050100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5145500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4113200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4013200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3963800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3698100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3629500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6494500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5327900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5514400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4873100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4597400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4990100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3869100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4362400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4233600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4141600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3761200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3270300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E59" s="3">
         <v>168000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>141300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>99500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>10400</v>
       </c>
       <c r="L59" s="3">
         <v>10400</v>
       </c>
       <c r="M59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N59" s="3">
         <v>11300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,49 +2792,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>755600</v>
+      </c>
+      <c r="E61" s="3">
         <v>782400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>826900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>887400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>783600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>832700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>459300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>325400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>369900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>507400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>428600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>435400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17935600</v>
+      </c>
+      <c r="E66" s="3">
         <v>15898400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14939500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13175300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12707400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10222300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9514400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9341900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9484400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8855900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8184500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>682500</v>
+      </c>
+      <c r="E72" s="3">
         <v>675200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>641000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>585700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>572400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>495000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>458400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>419100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>402100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>374900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>358600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>335200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E76" s="3">
         <v>901400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>860200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>799500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>767500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>688800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>648600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>614900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>594200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>570500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>551800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>526000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>33100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E83" s="3">
         <v>9700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>744100</v>
+      </c>
+      <c r="E89" s="3">
         <v>713600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>783800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-118800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>743400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>502400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>667600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-130000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>462500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>76100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-213000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-226300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-47000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-58100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>104500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-146000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>374200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>127800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-141000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>78600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>79600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>697200</v>
+      </c>
+      <c r="E102" s="3">
         <v>660200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>706700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>369600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>408400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>621400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>617700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-274800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>518200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-138300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14341400</v>
+      </c>
+      <c r="E8" s="3">
         <v>11846800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10192100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11244800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9250500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14284900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8243400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20366300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11245000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11279600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7873000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7192200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6552200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13918400</v>
+      </c>
+      <c r="E9" s="3">
         <v>11481000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9785200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10795000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8890800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13967600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7936200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20029500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11002000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11033500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7632100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6959500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6320500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E10" s="3">
         <v>365800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>406900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>449800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>359700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>317300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>307200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>336800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>243000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>246100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>240900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>232700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>231700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E15" s="3">
         <v>9800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14288900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11841900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10146100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11168500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9223600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14205000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8194400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20310200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11223300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11245500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7851400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7161300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6527800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E18" s="3">
         <v>4900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>79900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>56100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,52 +1255,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E21" s="3">
         <v>14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>84900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>87100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>53400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>79900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>56100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E26" s="3">
         <v>7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>55300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>77400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E27" s="3">
         <v>7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1631,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1615,11 +1675,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E33" s="3">
         <v>7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E35" s="3">
         <v>7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>983400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1109600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1075600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1001500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1033700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>952600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>465200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>519500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>338900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>471300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>345000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>274400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>358200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2144,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>550800</v>
+      </c>
+      <c r="E43" s="3">
         <v>487700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>634100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>494200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>268300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>428000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>411600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>482600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>333700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>427500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>283800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>305600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>352700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,37 +2238,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7888100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7567300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6943200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6464000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5794000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5550100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4541900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4535600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2332,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8819200</v>
+      </c>
+      <c r="E47" s="3">
         <v>8763700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7198300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6952300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6020500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5865600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6061300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4853400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5214000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5025800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5141400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5131500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4210700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E48" s="3">
         <v>218600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>221000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>183200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>172500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>163600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>126600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E49" s="3">
         <v>100800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>98700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>102500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>106400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>109500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>73100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>71500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>67900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>65900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>59400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>59300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E52" s="3">
         <v>35100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>363400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3608400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3763200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3248600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3404100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19229000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18839600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16799800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15799700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13974800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13474900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12389500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10870900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10129300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9936100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10054900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9407700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8710500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,140 +2748,150 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8678800</v>
+      </c>
+      <c r="E57" s="3">
         <v>8754500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7855900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7347000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6450500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6499100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5050100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5145500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4113200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4013200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3963800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3698100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3629500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6838800</v>
+      </c>
+      <c r="E58" s="3">
         <v>6494500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5327900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5514400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4873100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4597400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4990100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3869100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4362400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4233600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4141600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3761200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3270300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>163100</v>
+      </c>
+      <c r="E59" s="3">
         <v>159800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>168000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>133000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>141300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>10400</v>
       </c>
       <c r="M59" s="3">
         <v>10400</v>
       </c>
       <c r="N59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="O59" s="3">
         <v>11300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2934,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>994700</v>
+      </c>
+      <c r="E61" s="3">
         <v>755600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>782400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>826900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>887400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>783600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>832700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>459300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>325400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>369900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>507400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>428600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>435400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18276000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17935600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15898400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14939500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13175300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12707400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10222300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9514400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9341900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9484400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8855900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8184500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>724200</v>
+      </c>
+      <c r="E72" s="3">
         <v>682500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>675200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>641000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>585700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>572400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>495000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>458400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>419100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>402100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>374900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>358600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>335200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>953000</v>
+      </c>
+      <c r="E76" s="3">
         <v>904000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>901400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>860200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>799500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>767500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>688800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>648600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>614900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>594200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>570500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>551800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>526000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E81" s="3">
         <v>7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E83" s="3">
         <v>9800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600200</v>
+      </c>
+      <c r="E89" s="3">
         <v>744100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>713600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>783800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-118800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>743400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>502400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>667600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-130000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>462500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>76100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-213000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-226300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-58100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>104500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-146000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>374200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>127800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-141000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>78600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>79600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>14100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-367500</v>
+      </c>
+      <c r="E102" s="3">
         <v>697200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>660200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>706700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>369600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>408400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>621400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>617700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-274800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>518200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-138300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16382700</v>
+      </c>
+      <c r="E8" s="3">
         <v>14341400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11846800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10192100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11244800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9250500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14284900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8243400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20366300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11245000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11279600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7873000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7192200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6552200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15862700</v>
+      </c>
+      <c r="E9" s="3">
         <v>13918400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11481000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9785200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10795000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8890800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13967600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7936200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20029500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11002000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11033500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7632100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6959500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6320500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E10" s="3">
         <v>423000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>365800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>406900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>449800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>359700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>317300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>307200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>336800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>243000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>246100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>240900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>232700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>231700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-6400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1035,55 +1055,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E15" s="3">
         <v>9100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16295300</v>
+      </c>
+      <c r="E17" s="3">
         <v>14288900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11841900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10146100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11168500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9223600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14205000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8194400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20310200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11223300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11245500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7851400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7161300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6527800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E18" s="3">
         <v>52500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>79900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>56100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E21" s="3">
         <v>61600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>87100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E23" s="3">
         <v>52500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>76300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>79900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>56100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E24" s="3">
         <v>10800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E26" s="3">
         <v>41700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>55300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>77400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E27" s="3">
         <v>40500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,8 +1721,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1678,11 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E33" s="3">
         <v>40500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E35" s="3">
         <v>40500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1299700</v>
+      </c>
+      <c r="E41" s="3">
         <v>983400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1109600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1075600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1001500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1033700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>952600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>465200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>519500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>338900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>471300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>345000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>274400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>358200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>626100</v>
+      </c>
+      <c r="E43" s="3">
         <v>550800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>487700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>634100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>494200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>268300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>428000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>411600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>482600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>333700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>427500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>283800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>305600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>352700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,40 +2337,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9486400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7888100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7567300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6943200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6464000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5794000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5550100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4541900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4535600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,149 +2437,161 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8776700</v>
+      </c>
+      <c r="E47" s="3">
         <v>8819200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8763700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7198300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6952300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6020500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5865600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6061300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4853400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5214000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5025800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5141400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5131500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4210700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E48" s="3">
         <v>216900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>218600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>221000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>172500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>163600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>126600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E49" s="3">
         <v>97200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>100800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>98700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>102500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>106400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>109500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>73100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>71500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>67900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>65900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>59400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E52" s="3">
         <v>35500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>363400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3608400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3763200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3248600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3404100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21195700</v>
+      </c>
+      <c r="E54" s="3">
         <v>19229000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18839600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16799800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15799700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13974800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13474900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12389500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10870900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10129300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9936100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10054900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9407700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8710500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,149 +2879,159 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10352900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8678800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8754500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7855900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7347000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6450500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6499100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5050100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5145500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4113200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4013200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3963800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3698100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3629500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5911600</v>
+      </c>
+      <c r="E58" s="3">
         <v>6838800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6494500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5327900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5514400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4873100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4597400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4990100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3869100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4362400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4233600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4141600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3761200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3270300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E59" s="3">
         <v>163100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>159800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>168000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>141300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>10400</v>
       </c>
       <c r="N59" s="3">
         <v>10400</v>
       </c>
       <c r="O59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P59" s="3">
         <v>11300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,55 +3077,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>974800</v>
+      </c>
+      <c r="E61" s="3">
         <v>994700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>755600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>782400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>826900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>887400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>783600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>832700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>459300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>325400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>369900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>507400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>428600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>435400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20190100</v>
+      </c>
+      <c r="E66" s="3">
         <v>18276000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17935600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15898400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14939500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13175300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12707400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11700700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10222300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9514400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9341900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9484400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8855900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8184500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>788200</v>
+      </c>
+      <c r="E72" s="3">
         <v>724200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>682500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>675200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>641000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>585700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>572400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>495000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>458400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>419100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>402100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>374900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>358600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>335200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1005600</v>
+      </c>
+      <c r="E76" s="3">
         <v>953000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>904000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>901400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>860200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>799500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>767500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>688800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>648600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>614900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>594200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>570500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>551800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>526000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E81" s="3">
         <v>40500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
         <v>9100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2702200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>744100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>713600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>783800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-118800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>743400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>502400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>667600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-130000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>462500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>76100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-213000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-226300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E100" s="3">
         <v>241500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-58100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>104500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-146000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>374200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>127800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-141000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>78600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>79600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>14100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2667500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-367500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>697200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>660200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>706700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>369600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>408400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>621400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>617700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-274800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>518200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-138300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18930900</v>
+      </c>
+      <c r="E8" s="3">
         <v>16382700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14341400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11846800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10192100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11244800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9250500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14284900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8243400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20366300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11245000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11279600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7873000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7192200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6552200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18440900</v>
+      </c>
+      <c r="E9" s="3">
         <v>15862700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13918400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11481000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9785200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10795000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8890800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13967600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7936200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20029500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11002000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11033500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7632100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6959500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6320500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E10" s="3">
         <v>520000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>423000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>365800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>406900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>449800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>359700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>317300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>336800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>243000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>246100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>240900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>232700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>231700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,35 +1025,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E15" s="3">
         <v>11300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18860000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16295300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14288900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11841900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10146100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11168500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9223600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14205000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8194400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20310200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11223300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11245500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7851400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7161300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6527800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E18" s="3">
         <v>87400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>52500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>79900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E21" s="3">
         <v>98700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>87100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>53400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E23" s="3">
         <v>87400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>76300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>79900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E24" s="3">
         <v>23400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E26" s="3">
         <v>64000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>55300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E27" s="3">
         <v>62200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>40500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,8 +1785,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1742,11 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E33" s="3">
         <v>62200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>40500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E35" s="3">
         <v>62200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>40500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1363700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1299700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>983400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1109600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1075600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1001500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1033700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>952600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>465200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>519500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>338900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>471300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>345000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>274400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>358200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>636800</v>
+      </c>
+      <c r="E43" s="3">
         <v>626100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>550800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>487700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>634100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>494200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>268300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>428000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>411600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>482600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>333700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>427500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>283800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>305600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>352700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,43 +2436,46 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9803900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9486400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7888100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7567300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6943200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6464000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5794000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5550100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4541900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4535600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6563400</v>
+      </c>
+      <c r="E47" s="3">
         <v>8776700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8819200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8763700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7198300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6952300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6020500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5865600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6061300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4853400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5214000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5025800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5141400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5131500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4210700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E48" s="3">
         <v>222600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>216900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>218600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>221000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>183200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>172500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>163600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E49" s="3">
         <v>93500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>97200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>100800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>98700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>102500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>106400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>109500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>73100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>71500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>67900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>65900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>59300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E52" s="3">
         <v>41800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>363400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3608400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3763200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3248600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3404100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19408800</v>
+      </c>
+      <c r="E54" s="3">
         <v>21195700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19229000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18839600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16799800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15799700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13974800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13474900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12389500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10870900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10129300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9936100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10054900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9407700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8710500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,158 +3010,168 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10914800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10352900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8678800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8754500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7855900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7347000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6450500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6499100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5050100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5145500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4113200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4013200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3963800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3698100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3629500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3903200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5911600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6838800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6494500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5327900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5514400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4873100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4597400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4990100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3869100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4362400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4233600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4141600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3761200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3270300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E59" s="3">
         <v>169000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>163100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>159800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>168000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>136900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>141300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>10400</v>
       </c>
       <c r="O59" s="3">
         <v>10400</v>
       </c>
       <c r="P59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>11300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>847100</v>
+      </c>
+      <c r="E61" s="3">
         <v>974800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>994700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>755600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>782400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>826900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>887400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>783600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>832700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>459300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>325400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>369900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>507400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>428600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>435400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18361500</v>
+      </c>
+      <c r="E66" s="3">
         <v>20190100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18276000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17935600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15898400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14939500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13175300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12707400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11700700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10222300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9514400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9341900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9484400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8855900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8184500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>837300</v>
+      </c>
+      <c r="E72" s="3">
         <v>788200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>724200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>682500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>675200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>641000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>585700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>572400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>495000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>458400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>419100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>402100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>374900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>358600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>335200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1047300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1005600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>953000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>904000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>901400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>860200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>799500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>767500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>688800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>648600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>614900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>594200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>570500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>551800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>526000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E81" s="3">
         <v>62200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>40500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2598000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2702200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>744100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>713600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>783800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-118800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>743400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>502400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>667600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-130000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>462500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>76100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-213000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-226300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>241500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-58100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>104500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-146000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>374200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>127800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-141000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>78600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>79600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>14100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2747900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2667500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-367500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>697200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>660200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>706700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>369600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>408400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>621400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>617700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-274800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>518200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-138300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13011600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16381000</v>
+      </c>
+      <c r="F8" s="3">
         <v>18930900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16382700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14341400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11846800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>10192100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11244800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9250500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14284900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8243400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20366300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11245000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11279600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7873000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7192200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6552200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12525500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15886800</v>
+      </c>
+      <c r="F9" s="3">
         <v>18440900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15862700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>13918400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11481000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9785200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>10795000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8890800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13967600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7936200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>20029500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11002000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11033500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7632100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6959500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6320500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>486100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>494200</v>
+      </c>
+      <c r="F10" s="3">
         <v>490000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>520000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>423000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>365800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>406900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>449800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>359700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>317300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>307200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>336800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>243000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>246100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>240900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>232700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>231700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,40 +1061,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-23500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>-6400</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,61 +1120,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F15" s="3">
         <v>11700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>9100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>9800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>9700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2900</v>
       </c>
       <c r="S15" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12916000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16314600</v>
+      </c>
+      <c r="F17" s="3">
         <v>18860000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16295300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14288900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11841900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10146100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11168500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9223600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14205000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8194400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20310200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11223300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11245500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7851400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7161300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6527800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F18" s="3">
         <v>70900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>87400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>52500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>76300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>79900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>49000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>56100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>21700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>34100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>21600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>30900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>24400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1399,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>78700</v>
+      </c>
+      <c r="F21" s="3">
         <v>82600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>98700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>61600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>14700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>55700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>84900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>35300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>87100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>53400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>60300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>25600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>38500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>25100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>34100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>27300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F23" s="3">
         <v>70900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>87400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>52500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>46000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>76300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>26900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>79900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>49000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>56100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>21700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>21600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>30900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>24400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F24" s="3">
         <v>21800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>23400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>10800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>11800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>16800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>52300</v>
+      </c>
+      <c r="F26" s="3">
         <v>49100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>64000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>41700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>34200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>55300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>19500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>77400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>36600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>39300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>16300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>27200</v>
       </c>
       <c r="P26" s="3">
         <v>16300</v>
       </c>
       <c r="Q26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="S26" s="3">
         <v>23400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>18200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F27" s="3">
         <v>47600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>62200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>40500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>33100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>53600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>75500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>35700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>38400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>16000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>26700</v>
       </c>
       <c r="P27" s="3">
         <v>16000</v>
       </c>
       <c r="Q27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S27" s="3">
         <v>23000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>17900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,11 +1909,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1806,11 +1927,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F33" s="3">
         <v>47600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>62200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>40500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>33100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>53600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>75500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>35700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>38400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>16000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>26700</v>
       </c>
       <c r="P33" s="3">
         <v>16000</v>
       </c>
       <c r="Q33" s="3">
+        <v>26700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S33" s="3">
         <v>23000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>17900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F35" s="3">
         <v>47600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>62200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>40500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>33100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>53600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>75500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>35700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>38400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>16000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>26700</v>
       </c>
       <c r="P35" s="3">
         <v>16000</v>
       </c>
       <c r="Q35" s="3">
+        <v>26700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S35" s="3">
         <v>23000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>17900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1252100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1108500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1363700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1299700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>983400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1109600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1075600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1001500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1033700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>952600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>465200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>519500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>338900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>471300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>345000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>274400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>358200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2512,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>583000</v>
+      </c>
+      <c r="F43" s="3">
         <v>636800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>626100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>550800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>487700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>634100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>494200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>268300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>428000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>411600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>482600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>333700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>427500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>283800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>305600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>352700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,49 +2630,55 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9194900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10109800</v>
+      </c>
+      <c r="F45" s="3">
         <v>9803900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9486400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7888100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7567300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6943200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6464000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5794000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5550100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4541900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4535600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
@@ -2492,8 +2689,14 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2748,191 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7650400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7054200</v>
+      </c>
+      <c r="F47" s="3">
         <v>6563400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>8776700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>8819200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>8763700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7198300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6952300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6020500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5865600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6061300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4853400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5214000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5025800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5141400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5131500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4210700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>234700</v>
+      </c>
+      <c r="F48" s="3">
         <v>223600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>222600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>216900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>218600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>221000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>183200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>172500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>163600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>126600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>74600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>76400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>43900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>45700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>45600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>44700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>86200</v>
+      </c>
+      <c r="F49" s="3">
         <v>90000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>93500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>97200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>100800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>98700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>102500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>106400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>109500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>76300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>73100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>71500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>67900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>65900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>59400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>59300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F52" s="3">
         <v>43000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>41800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>35500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>35100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>37000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>35200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>39300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>36900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>363400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3608400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3763200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3248600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3404100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19832400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19859600</v>
+      </c>
+      <c r="F54" s="3">
         <v>19408800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21195700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19229000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18839600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16799800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15799700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13974800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13474900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12389500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10870900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10129300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9936100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10054900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9407700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8710500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,167 +3270,187 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9950400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10951400</v>
+      </c>
+      <c r="F57" s="3">
         <v>10914800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10352900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8678800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8754500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7855900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7347000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6450500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6499100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5050100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5145500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4113200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4013200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3963800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3698100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3629500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5403500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4385100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3903200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5911600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6838800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6494500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5327900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5514400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4873100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4597400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4990100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3869100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4362400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4233600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4141600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3761200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3270300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>159200</v>
+      </c>
+      <c r="F59" s="3">
         <v>158900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>169000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>163100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>159800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>168000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>133000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>136900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>141300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>99500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>44800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>47000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3502,73 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>922100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>824200</v>
+      </c>
+      <c r="F61" s="3">
         <v>847100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>974800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>994700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>755600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>782400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>826900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>887400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>783600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>832700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>459300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>325400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>369900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>507400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>428600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>435400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18655800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18789500</v>
+      </c>
+      <c r="F66" s="3">
         <v>18361500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20190100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18276000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>17935600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15898400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14939500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13175300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12707400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11700700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10222300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9514400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9341900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9484400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8855900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8184500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>966200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>889600</v>
+      </c>
+      <c r="F72" s="3">
         <v>837300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>788200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>724200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>682500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>675200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>641000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>585700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>572400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>495000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>458400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>419100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>402100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>374900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>358600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>335200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1176600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1070100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1047300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1005600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>953000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>904000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>901400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>860200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>799500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>767500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>688800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>648600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>614900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>594200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>570500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>551800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>526000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F81" s="3">
         <v>47600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>62200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>40500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>33100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>53600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>75500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>35700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>38400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>16000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>26700</v>
       </c>
       <c r="P81" s="3">
         <v>16000</v>
       </c>
       <c r="Q81" s="3">
+        <v>26700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S81" s="3">
         <v>23000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>17900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F83" s="3">
         <v>11700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>4400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2900</v>
       </c>
       <c r="S83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1046700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>266500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2598000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2702200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>744100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>713600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>783800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-118800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>743400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>37200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>502400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>667600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-130000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>462500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>76100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-213000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-17600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-22400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-10400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-17600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-226300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-131000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>241500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-35000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-47000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-58100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>104500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-146000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>374200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>127800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-43700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-141000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>78600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-7600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>79600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>14100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>300</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>300</v>
+      </c>
+      <c r="U101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1125600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>223500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2747900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2667500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-367500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>697200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>660200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>706700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-23000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>369600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>408400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>621400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>617700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-274800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>518200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>58600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-138300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16161000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13011600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16381000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18930900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16382700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14341400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11846800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10192100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11244800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9250500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14284900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8243400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20366300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11245000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11279600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7873000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7192200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6552200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15650200</v>
+      </c>
+      <c r="E9" s="3">
         <v>12525500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15886800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18440900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15862700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13918400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11481000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9785200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10795000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8890800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13967600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7936200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20029500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11002000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11033500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7632100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6959500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6320500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>510800</v>
+      </c>
+      <c r="E10" s="3">
         <v>486100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>494200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>490000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>520000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>423000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>365800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>406900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>449800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>359700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>317300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>336800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>243000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>246100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>240900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>232700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>231700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,25 +1084,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-23500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1093,18 +1113,18 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E15" s="3">
         <v>12700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16103500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12916000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16314600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18860000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16295300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14288900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11841900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10146100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11168500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9223600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14205000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8194400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20310200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11223300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11245500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7851400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7161300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6527800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E18" s="3">
         <v>95600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>66400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>70900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>87400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>56100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E21" s="3">
         <v>108300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>78700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>82600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>98700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>87100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E23" s="3">
         <v>95600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>66400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>70900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>87400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>56100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E26" s="3">
         <v>76600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>52300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>64000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>77400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E27" s="3">
         <v>74200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>47600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>40500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1915,8 +1976,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1933,11 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E33" s="3">
         <v>74200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E35" s="3">
         <v>74200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1263900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1252100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1108500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1363700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1299700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>983400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1109600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1075600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1001500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1033700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>952600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>465200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>519500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>338900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>471300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>345000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>274400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>358200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>994200</v>
+      </c>
+      <c r="E43" s="3">
         <v>603000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>583000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>636800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>626100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>550800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>487700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>634100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>494200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>268300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>428000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>411600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>482600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>333700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>427500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>283800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>305600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,52 +2732,55 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10128600</v>
+      </c>
+      <c r="E45" s="3">
         <v>9194900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10109800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9803900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9486400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7888100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7567300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6943200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6464000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5794000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5550100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4541900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4535600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8431100</v>
+      </c>
+      <c r="E47" s="3">
         <v>7650400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7054200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6563400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8776700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8819200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8763700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7198300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6952300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6020500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5865600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6061300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4853400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5214000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5025800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5141400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5131500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4210700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E48" s="3">
         <v>235800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>234700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>222600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>216900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>218600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>221000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>183200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>163600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>76400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E49" s="3">
         <v>91500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>86200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>90000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>93500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>97200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>100800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>98700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>102500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>106400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>109500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>73100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>71500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>67900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>65900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>59400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>59300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E52" s="3">
         <v>40000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>363400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3608400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3763200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3248600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3404100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21918900</v>
+      </c>
+      <c r="E54" s="3">
         <v>19832400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19859600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19408800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21195700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19229000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18839600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16799800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15799700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13974800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13474900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12389500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10870900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10129300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9936100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10054900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9407700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8710500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,185 +3402,195 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11240900</v>
+      </c>
+      <c r="E57" s="3">
         <v>9950400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10951400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10914800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10352900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8678800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8754500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7855900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7347000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6450500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6499100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5050100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5145500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4113200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4013200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3963800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3698100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3629500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5787600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5403500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4385100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3903200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5911600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6838800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6494500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5327900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5514400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4873100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4597400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4990100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3869100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4362400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4233600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4141600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3761200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3270300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>170300</v>
+      </c>
+      <c r="E59" s="3">
         <v>171300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>159200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>158900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>169000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>163100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>159800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>168000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>141300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>44800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>10400</v>
       </c>
       <c r="R59" s="3">
         <v>10400</v>
       </c>
       <c r="S59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="T59" s="3">
         <v>11300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,67 +3648,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>901900</v>
+      </c>
+      <c r="E61" s="3">
         <v>922100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>824200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>847100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>974800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>994700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>755600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>782400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>826900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>887400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>783600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>832700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>459300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>325400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>369900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>507400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>428600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>435400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20671600</v>
+      </c>
+      <c r="E66" s="3">
         <v>18655800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18789500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18361500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20190100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18276000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17935600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15898400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14939500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13175300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12707400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11700700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10222300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9514400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9341900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9484400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8855900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8184500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1007900</v>
+      </c>
+      <c r="E72" s="3">
         <v>966200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>889600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>837300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>788200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>724200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>682500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>675200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>641000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>585700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>572400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>495000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>458400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>419100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>402100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>374900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>358600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>335200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1247300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1176600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1070100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1047300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1005600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>953000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>904000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>901400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>860200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>799500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>767500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>688800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>648600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>614900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>594200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>570500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>551800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>526000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E81" s="3">
         <v>74200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1649400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1046700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>266500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2598000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2702200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>744100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>713600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>783800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-118800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>743400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>502400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>667600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-130000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>462500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>76100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-213000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-226300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E100" s="3">
         <v>88600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-131000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>241500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-35000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-58100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>104500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-146000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>374200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>127800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-141000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>78600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>79600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1693400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1125600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>223500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2747900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2667500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-367500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>697200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>660200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>706700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>369600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>408400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>621400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>617700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-274800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>518200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-138300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SNEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15047900</v>
+      </c>
+      <c r="E8" s="3">
         <v>16161000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13011600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16381000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18930900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16382700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14341400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11846800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10192100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11244800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9250500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14284900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8243400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20366300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11245000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11279600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7873000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7192200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6552200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6078800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14501900</v>
+      </c>
+      <c r="E9" s="3">
         <v>15650200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12525500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15886800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18440900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15862700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13918400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11481000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9785200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10795000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8890800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13967600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7936200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20029500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11002000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11033500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7632100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6959500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6320500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5860900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E10" s="3">
         <v>510800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>486100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>494200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>490000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>520000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>423000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>365800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>406900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>449800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>359700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>317300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>307200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>336800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>243000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>246100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>240900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>232700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>231700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>217900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-23500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-6400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1116,18 +1136,18 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="3">
         <v>13100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14953400</v>
+      </c>
+      <c r="E17" s="3">
         <v>16103500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12916000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16314600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18860000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16295300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14288900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11841900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10146100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11168500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9223600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14205000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8194400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20310200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11223300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11245500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7851400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7161300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6527800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6058300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E18" s="3">
         <v>57500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>66400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>87400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>56100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E21" s="3">
         <v>70600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>78700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>82600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>98700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>55700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>87100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>53400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E23" s="3">
         <v>57500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>95600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>66400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>70900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>24400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>15800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E26" s="3">
         <v>41700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E27" s="3">
         <v>40200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>74200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>47600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>40500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1979,8 +2040,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1997,11 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E33" s="3">
         <v>40200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>40500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E35" s="3">
         <v>40200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>40500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1401300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1263900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1252100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1108500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1363700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1299700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>983400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1109600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1075600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1001500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1033700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>952600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>465200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>519500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>338900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>471300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>345000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>274400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>358200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>342300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>723800</v>
+      </c>
+      <c r="E43" s="3">
         <v>994200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>603000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>583000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>636800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>626100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>550800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>487700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>634100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>494200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>268300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>428000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>411600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>482600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>333700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>427500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>283800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>305600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>352700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>288300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,55 +2831,58 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9790100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10128600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9194900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10109800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9803900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9486400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7888100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7567300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6943200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6464000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5794000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5550100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4541900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4535600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3760400</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +2961,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9046900</v>
+      </c>
+      <c r="E47" s="3">
         <v>8431100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7650400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7054200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6563400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8776700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8819200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8763700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7198300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6952300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6020500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5865600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6061300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4853400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5214000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5025800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5141400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5131500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4210700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3154900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E48" s="3">
         <v>235400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>234700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>222600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>216900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>218600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>221000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>183200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>172500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>163600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>126600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>76400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>45600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E49" s="3">
         <v>88900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>91500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>86200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>90000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>93500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>97200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>100800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>98700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>102500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>109500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>76300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>73100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>71500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>67900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>65900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>59400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>59300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E52" s="3">
         <v>35500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>35100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>363400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3608400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3763200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3248600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3404100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3663000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21933100</v>
+      </c>
+      <c r="E54" s="3">
         <v>21918900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19832400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19859600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19408800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21195700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19229000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18839600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16799800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15799700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13974800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13474900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12389500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10870900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10129300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9936100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10054900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9407700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8710500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7824700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,194 +3533,204 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10833600</v>
+      </c>
+      <c r="E57" s="3">
         <v>11240900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9950400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10951400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10914800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10352900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8678800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8754500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7855900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7347000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6450500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6499100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5050100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5145500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4113200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4013200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3963800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3698100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3629500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3874500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6122800</v>
+      </c>
+      <c r="E58" s="3">
         <v>5787600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5403500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4385100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3903200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5911600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6838800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6494500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5327900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5514400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4873100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4597400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4990100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3869100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4362400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4233600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4141600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3761200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3270300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2214600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E59" s="3">
         <v>170300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>159200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>158900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>169000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>163100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>159800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>168000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>141300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>99500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>44800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>10400</v>
       </c>
       <c r="S59" s="3">
         <v>10400</v>
       </c>
       <c r="T59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="U59" s="3">
         <v>11300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,70 +3791,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>763900</v>
+      </c>
+      <c r="E61" s="3">
         <v>901900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>922100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>824200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>847100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>974800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>994700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>755600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>782400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>826900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>887400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>783600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>832700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>459300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>325400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>369900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>507400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>428600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>435400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>355200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20603200</v>
+      </c>
+      <c r="E66" s="3">
         <v>20671600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18655800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18789500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18361500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20190100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18276000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17935600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15898400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14939500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13175300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12707400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11700700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10222300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9514400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9341900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9484400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8855900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8184500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7319400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1077400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1007900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>966200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>889600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>837300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>788200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>724200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>682500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>675200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>641000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>585700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>572400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>495000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>458400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>419100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>402100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>374900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>358600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>335200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>317000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1329900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1247300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1176600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1070100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1047300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1005600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>953000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>904000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>901400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>860200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>799500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>767500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>688800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>648600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>614900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>594200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>570500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>551800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>526000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>505300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E81" s="3">
         <v>40200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>40500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E83" s="3">
         <v>13100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1649400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1046700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>266500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2598000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2702200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>744100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>713600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>783800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-118800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>743400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>502400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>667600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-130000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>462500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>76100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-213000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-226300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>88600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-131000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>241500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-35000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>104500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-146000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>374200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>127800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-141000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>78600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>79600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1693400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1125600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>223500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2747900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2667500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-367500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>697200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>660200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>706700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>369600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>408400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>621400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>617700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-274800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>518200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-138300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5500</v>
       </c>
     </row>
